--- a/Builds/LAPARO/Software/Python/analysis/Point Accuracy Data.xlsx
+++ b/Builds/LAPARO/Software/Python/analysis/Point Accuracy Data.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_10_26_18_15_1_49" localSheetId="0">Sheet1!$B$2:$I$1415</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Xm</t>
   </si>
@@ -119,13 +120,57 @@
   <si>
     <t>TPOS Number</t>
   </si>
+  <si>
+    <t>TPOS Reference Number</t>
+  </si>
+  <si>
+    <t>TPOS Coordinates According to Orgin (0,0,0)</t>
+  </si>
+  <si>
+    <t>(20, -85, -165)</t>
+  </si>
+  <si>
+    <t>(26, 95, -212.8)</t>
+  </si>
+  <si>
+    <t>(85, 37, -129.8)</t>
+  </si>
+  <si>
+    <t>(55.75, 74.5, -231.8)</t>
+  </si>
+  <si>
+    <t>(-37.5, -36, -199.8)</t>
+  </si>
+  <si>
+    <t>(-126.5, -8, -231.8)</t>
+  </si>
+  <si>
+    <t>(-82.5, 27.5, -212.8)</t>
+  </si>
+  <si>
+    <t>(-79, 46, -212.8)</t>
+  </si>
+  <si>
+    <t>(-66.5, 60.5, -212.8)</t>
+  </si>
+  <si>
+    <t>(-86, -90, -231.8)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,8 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,48 +485,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1427"/>
+  <dimension ref="A1:I1439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1391" workbookViewId="0">
-      <selection activeCell="E1420" sqref="E1420"/>
+    <sheetView tabSelected="1" topLeftCell="A1409" workbookViewId="0">
+      <selection activeCell="Q1386" sqref="Q1386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -3733,7 +3779,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B127">
@@ -4594,7 +4640,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B160">
@@ -7301,7 +7347,7 @@
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B264">
@@ -7616,7 +7662,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B276">
@@ -10531,7 +10577,7 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B388">
@@ -11028,7 +11074,7 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B407">
@@ -13865,7 +13911,7 @@
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B516">
@@ -14284,7 +14330,7 @@
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
+      <c r="A532" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B532">
@@ -17199,7 +17245,7 @@
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+      <c r="A644" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B644">
@@ -17670,7 +17716,7 @@
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
+      <c r="A662" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B662">
@@ -20481,7 +20527,7 @@
       </c>
     </row>
     <row r="770" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+      <c r="A770" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B770">
@@ -20848,7 +20894,7 @@
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
+      <c r="A784" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B784">
@@ -23815,7 +23861,7 @@
       </c>
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A898" t="s">
+      <c r="A898" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B898">
@@ -24078,7 +24124,7 @@
       </c>
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A908" t="s">
+      <c r="A908" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B908">
@@ -27175,7 +27221,7 @@
       </c>
     </row>
     <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1027" t="s">
+      <c r="A1027" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1027">
@@ -27542,7 +27588,7 @@
       </c>
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1041" t="s">
+      <c r="A1041" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1041">
@@ -30483,7 +30529,7 @@
       </c>
     </row>
     <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1154" t="s">
+      <c r="A1154" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1154">
@@ -30642,7 +30688,7 @@
       </c>
     </row>
     <row r="1160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1160" t="s">
+      <c r="A1160" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1160">
@@ -33791,7 +33837,7 @@
       </c>
     </row>
     <row r="1281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1281" t="s">
+      <c r="A1281" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1281">
@@ -34054,7 +34100,7 @@
       </c>
     </row>
     <row r="1291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1291" t="s">
+      <c r="A1291" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1291">
@@ -37281,7 +37327,7 @@
       </c>
     </row>
     <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1415" t="s">
+      <c r="A1415" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1415">
@@ -37310,24 +37356,24 @@
       </c>
     </row>
     <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1417" t="s">
+      <c r="A1417" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1417" t="s">
+      <c r="E1417" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1417" t="s">
+      <c r="F1417" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1417" t="s">
+      <c r="G1417" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1418" t="s">
+      <c r="A1418" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1418">
+      <c r="D1418" s="1">
         <v>1</v>
       </c>
       <c r="E1418">
@@ -37344,7 +37390,7 @@
       </c>
     </row>
     <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1419">
+      <c r="D1419" s="1">
         <v>2</v>
       </c>
       <c r="E1419">
@@ -37361,46 +37407,245 @@
       </c>
     </row>
     <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1420">
+      <c r="D1420" s="1">
         <v>3</v>
       </c>
+      <c r="E1420">
+        <f>AVERAGE(E407:E515)</f>
+        <v>77.062018348623894</v>
+      </c>
+      <c r="F1420">
+        <f>AVERAGE(F407:F515)</f>
+        <v>42.295972477064232</v>
+      </c>
+      <c r="G1420">
+        <f>AVERAGE(G407:G515)</f>
+        <v>-141.07476146788991</v>
+      </c>
     </row>
     <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1421">
+      <c r="D1421" s="1">
         <v>4</v>
       </c>
+      <c r="E1421">
+        <f>AVERAGE(E532:E643)</f>
+        <v>47.026866071428586</v>
+      </c>
+      <c r="F1421">
+        <f>AVERAGE(F532:F643)</f>
+        <v>73.781026785714275</v>
+      </c>
+      <c r="G1421">
+        <f>AVERAGE(G532:G643)</f>
+        <v>-230.86888392857145</v>
+      </c>
     </row>
     <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1422">
+      <c r="D1422" s="1">
         <v>5</v>
       </c>
+      <c r="E1422">
+        <f>AVERAGE(E662:E769)</f>
+        <v>-39.531500000000001</v>
+      </c>
+      <c r="F1422">
+        <f>AVERAGE(F662:F769)</f>
+        <v>-23.620546296296308</v>
+      </c>
+      <c r="G1422">
+        <f>AVERAGE(G662:G769)</f>
+        <v>-195.80682407407414</v>
+      </c>
     </row>
     <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1423">
+      <c r="D1423" s="1">
         <v>6</v>
       </c>
+      <c r="E1423">
+        <f>AVERAGE(E784:E897)</f>
+        <v>-86.573614035087743</v>
+      </c>
+      <c r="F1423">
+        <f>AVERAGE(F784:F897)</f>
+        <v>-68.217894736842126</v>
+      </c>
+      <c r="G1423">
+        <f>AVERAGE(G784:G897)</f>
+        <v>-217.28258771929828</v>
+      </c>
     </row>
     <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1424">
+      <c r="D1424" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="1425" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1425">
+      <c r="E1424">
+        <f>AVERAGE(E908:E1026)</f>
+        <v>-111.53599159663867</v>
+      </c>
+      <c r="F1424">
+        <f>AVERAGE(F908:F1026)</f>
+        <v>-10.442495798319326</v>
+      </c>
+      <c r="G1424">
+        <f>AVERAGE(G908:G1026)</f>
+        <v>-219.38595798319332</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1425" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="1426" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1426">
+      <c r="E1425">
+        <f>AVERAGE(E1041:E1153)</f>
+        <v>-81.349610619469019</v>
+      </c>
+      <c r="F1425">
+        <f>AVERAGE(F1041:F1153)</f>
+        <v>30.234292035398244</v>
+      </c>
+      <c r="G1425">
+        <f>AVERAGE(G1041:G1153)</f>
+        <v>-210.89652212389379</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1426" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="1427" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1427">
+      <c r="E1426">
+        <f>AVERAGE(E1160:E1280)</f>
+        <v>-80.954735537190103</v>
+      </c>
+      <c r="F1426">
+        <f>AVERAGE(F1160:F1280)</f>
+        <v>44.637776859504136</v>
+      </c>
+      <c r="G1426">
+        <f>AVERAGE(G1160:G1280)</f>
+        <v>-210.34703305785118</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1427" s="1">
         <v>10</v>
       </c>
+      <c r="E1427">
+        <f>AVERAGE(E1291:E1415)</f>
+        <v>-70.932240000000007</v>
+      </c>
+      <c r="F1427">
+        <f>AVERAGE(F1291:F1415)</f>
+        <v>57.816383999999999</v>
+      </c>
+      <c r="G1427">
+        <f>AVERAGE(G1291:G1415)</f>
+        <v>-211.34456</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1429" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1429" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1430" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1431" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1432" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1433" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1434" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1435" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1436" s="1">
+        <v>7</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1437" s="1">
+        <v>8</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1438" s="1">
+        <v>9</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1439" s="1">
+        <v>10</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Builds/LAPARO/Software/Python/analysis/Point Accuracy Data.xlsx
+++ b/Builds/LAPARO/Software/Python/analysis/Point Accuracy Data.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Xm</t>
   </si>
@@ -156,12 +156,18 @@
   <si>
     <t>(-86, -90, -231.8)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Error % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average % Error </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +179,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,9 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,16 +499,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1439"/>
+  <dimension ref="A1:I1454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1409" workbookViewId="0">
-      <selection activeCell="Q1386" sqref="Q1386"/>
+    <sheetView tabSelected="1" topLeftCell="A1419" workbookViewId="0">
+      <selection activeCell="F1459" sqref="F1459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -37628,6 +37644,177 @@
       </c>
       <c r="B1439" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1442" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1443" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1443" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="C1443" s="2">
+        <v>26.94</v>
+      </c>
+      <c r="D1443">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1444" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1444" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="C1444">
+        <v>2.98</v>
+      </c>
+      <c r="D1444">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1445" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1445">
+        <v>9.34</v>
+      </c>
+      <c r="C1445" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="D1445">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1446" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1446" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="C1446">
+        <v>0.97</v>
+      </c>
+      <c r="D1446">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1447" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1447">
+        <v>5.4169999999999998</v>
+      </c>
+      <c r="C1447" s="2">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="D1447">
+        <v>1.998</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1448" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1448">
+        <v>0.67</v>
+      </c>
+      <c r="C1448" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="D1448">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1449" s="1">
+        <v>7</v>
+      </c>
+      <c r="B1449" s="2">
+        <v>11.83</v>
+      </c>
+      <c r="C1449" s="2">
+        <v>30.53</v>
+      </c>
+      <c r="D1449">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1450" s="1">
+        <v>8</v>
+      </c>
+      <c r="B1450">
+        <v>1.39</v>
+      </c>
+      <c r="C1450">
+        <v>9.94</v>
+      </c>
+      <c r="D1450">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1451" s="1">
+        <v>9</v>
+      </c>
+      <c r="B1451">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C1451">
+        <v>2.96</v>
+      </c>
+      <c r="D1451">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1452" s="1">
+        <v>10</v>
+      </c>
+      <c r="B1452">
+        <v>6.67</v>
+      </c>
+      <c r="C1452">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D1452">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1454" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1454">
+        <f>AVERAGE(B1443:B1452)</f>
+        <v>8.3987000000000016</v>
+      </c>
+      <c r="C1454">
+        <f>AVERAGE(C1443:C1452)</f>
+        <v>15.164000000000001</v>
+      </c>
+      <c r="D1454">
+        <f>AVERAGE(D1443:D1452)</f>
+        <v>3.4368000000000003</v>
       </c>
     </row>
   </sheetData>
